--- a/KEYBOARD/BOM/BOM KeyBoard.xlsx
+++ b/KEYBOARD/BOM/BOM KeyBoard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\upl_audioanalyzer\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bart\Documents\GitHub\UPL_AudioAnalyzer\KEYBOARD\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F971166-DCD6-48D5-94A9-4E070AA7E3C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530AF8F9-7D76-438D-8546-331A9B62A706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C56C210-DCD0-4B76-B854-73BBFDBB2958}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C56C210-DCD0-4B76-B854-73BBFDBB2958}"/>
   </bookViews>
   <sheets>
     <sheet name="FetHead" sheetId="3" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Farnell</t>
   </si>
@@ -69,22 +63,34 @@
     <t>Euro</t>
   </si>
   <si>
-    <t>917-4078</t>
-  </si>
-  <si>
     <t>Button</t>
   </si>
   <si>
     <t>LED 1206</t>
   </si>
   <si>
-    <t>Hartin Connector Chassis</t>
-  </si>
-  <si>
-    <t>Hartin Connector Cable</t>
-  </si>
-  <si>
-    <t>25-26 ribbon cable.</t>
+    <t>Aliexpress</t>
+  </si>
+  <si>
+    <t>FPC Cable 34Pin</t>
+  </si>
+  <si>
+    <t>34Pin FPC Cable pitch 1.25mm</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>538-52044-3445</t>
+  </si>
+  <si>
+    <t>34Pin FPC Connector</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>evq-q2b01w</t>
   </si>
 </sst>
 </file>
@@ -455,17 +461,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B339EA2E-58E6-48C2-B743-24C662D28A88}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -499,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E7" si="0">C2*D2</f>
+        <f t="shared" ref="E2:E6" si="0">C2*D2</f>
         <v>0</v>
       </c>
       <c r="F2" t="s">
@@ -507,8 +514,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
+      <c r="A3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -517,22 +524,22 @@
         <v>50</v>
       </c>
       <c r="D3">
-        <v>0.73699999999999999</v>
+        <v>0.316</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>36.85</v>
+        <v>15.8</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1106765</v>
+      <c r="A4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -545,87 +552,77 @@
         <v>2.84</v>
       </c>
       <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>1106731</v>
-      </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.5499999999999998</v>
+        <v>2.91</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>2.5499999999999998</v>
+        <v>2.91</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="D6">
         <v>0.05</v>
       </c>
-      <c r="E7">
+      <c r="E6">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="E13">
-        <f>SUM(E2:E11)</f>
-        <v>42.539999999999992</v>
+      <c r="E12">
+        <f>SUM(E2:E10)</f>
+        <v>21.85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="760-3126" xr:uid="{8FF02029-F92B-4D12-94A4-629EE4CECCE6}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://be.farnell.com/harting/09-18-526-7914/header-straight-s-latch-26way/dp/1106765" xr:uid="{F0419CBF-5412-41F1-8D23-F424748E6763}"/>
-    <hyperlink ref="A5" r:id="rId3" display="1106731" xr:uid="{B95F766E-EE43-4D7F-9AF1-D5C5AD2277A1}"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{104C2995-6EE8-4FF8-8851-F491AE602700}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{BD936BCB-E03C-4BDE-B0A2-61A206373343}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{99880E67-5D5E-419D-B466-D4DF10138954}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
